--- a/Imagenes PL-400/Restaurante.xlsx
+++ b/Imagenes PL-400/Restaurante.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhmadrid-my.sharepoint.com/personal/j_beumala_dignitae_com/Documents/Formacion/2025/02-Power Platform/PL-400-2025-05/Taller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="14_{C6EC0F63-5AA7-4DE4-87C7-3A0BAF4291F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C345F9-AC1E-4DC2-BAD9-E0A2A1EEC288}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="14_{C6EC0F63-5AA7-4DE4-87C7-3A0BAF4291F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A368019-9BF9-4399-9D6A-32783902877C}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{181A99CE-97E7-43C5-A3D9-183942FE1062}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{181A99CE-97E7-43C5-A3D9-183942FE1062}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Pedidos" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos Menu" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Display name</t>
   </si>
@@ -155,12 +156,54 @@
   <si>
     <t>Tabla</t>
   </si>
+  <si>
+    <t>Menús</t>
+  </si>
+  <si>
+    <t>Menú</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espagueti Boloñesa </t>
+  </si>
+  <si>
+    <t>Sumérgete en la riqueza de la boloñesa: carne sabrosa, tomate dulce, hierbas aromáticas. Espaguetis perfectos, cada bocado una explosión de sabor reconfortante.</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Hamburguesa con patatas</t>
+  </si>
+  <si>
+    <t>Pescado con patatas</t>
+  </si>
+  <si>
+    <t>Bistec con patatas</t>
+  </si>
+  <si>
+    <t>Tentadoras porciones de alegría: pizza artesanal con base crujiente, queso derretido y salsa vibrante. ¡Una explosión de sabor en cada bocado!</t>
+  </si>
+  <si>
+    <t>Pescado blanco, crujiente y dorado, envuelto en una capa de rebozado perfecto. A su lado, patatas fritas, rústicas y tiernas, con un toque de sal. Una combinación clásica, simple y profundamente satisfactoria que evoca el sabor del mar y la tradición.</t>
+  </si>
+  <si>
+    <t>Jugosa hamburguesa a la parrilla, con queso derretido y verduras frescas. Acompañada de crujientes patatas doradas, una explosión de sabor que no podrás resistir.</t>
+  </si>
+  <si>
+    <t>Suculento bistec a la parrilla, tierno por dentro, crujiente por fuera, acompañado de patatas doradas. Un clásico reconfortante que despierta los sentidos.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +233,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,10 +280,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -222,11 +295,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -237,6 +343,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -264,6 +374,18 @@
     <tableColumn id="6" xr3:uid="{83B0CD4B-32EB-4697-9663-F7BAB4BB1E4B}" name="Choices"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5333DE3C-0CE1-4C85-9A4B-B5AE8D3C37D6}" name="Tabla3" displayName="Tabla3" ref="A2:C7" totalsRowShown="0">
+  <autoFilter ref="A2:C7" xr:uid="{5333DE3C-0CE1-4C85-9A4B-B5AE8D3C37D6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{75D3CEDD-4016-4868-BC76-418AB48E6496}" name="Menú"/>
+    <tableColumn id="2" xr3:uid="{D79124C9-5B82-4EEE-8EA5-2E906966F976}" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{24801019-290A-4F52-84AB-921FD1915E2E}" name="Precio" dataDxfId="0" dataCellStyle="Moneda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -819,16 +941,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DB0D4B-A307-458B-BAC7-E69BFCB4B8F6}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="68.77734375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="11">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C82069BB5ADB254683063F796E1CEDDA" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7c99b0a886ab5be0bb6da3a8ed064779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2c18016-6b7d-4fb3-8f16-d5af51761a3d" xmlns:ns4="f1fa4a2a-4d17-4616-9bd4-2cb2cac9ca61" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ceb5fac798621debaf3a4c3ccfe63bd2" ns3:_="" ns4:_="">
     <xsd:import namespace="e2c18016-6b7d-4fb3-8f16-d5af51761a3d"/>
@@ -1067,6 +1273,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1076,14 +1291,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A403D6-9DC6-4DBA-BE57-96B190DABFFE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99843B3C-5C1C-4100-836F-8338F2F86BA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1102,6 +1309,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A403D6-9DC6-4DBA-BE57-96B190DABFFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDA9C5C-512A-42F6-B19F-4682F4EFA795}">
   <ds:schemaRefs>
